--- a/长期.xlsx
+++ b/长期.xlsx
@@ -4,23 +4,41 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>B2*(1+B1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1*(1+0.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计投资金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c2*(1+c1)+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*（1+0.1）+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2*(1+B1)-0.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -954,4 +972,904 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D1" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E1" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F1" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G1" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="H1" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.31</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.47</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.64</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.81</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5.37</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5.77</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6.19</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6.11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.74</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7.44</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="G6" s="1">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="H6" s="1">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7.72</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8.75</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9.93</v>
+      </c>
+      <c r="F7" s="1">
+        <v>11.26</v>
+      </c>
+      <c r="G7" s="1">
+        <v>12.76</v>
+      </c>
+      <c r="H7" s="1">
+        <v>14.44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9.49</v>
+      </c>
+      <c r="D8" s="1">
+        <v>11.07</v>
+      </c>
+      <c r="E8" s="1">
+        <v>12.92</v>
+      </c>
+      <c r="F8" s="1">
+        <v>15.07</v>
+      </c>
+      <c r="G8" s="1">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="H8" s="1">
+        <v>20.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>11.44</v>
+      </c>
+      <c r="D9" s="1">
+        <v>13.73</v>
+      </c>
+      <c r="E9" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>19.84</v>
+      </c>
+      <c r="G9" s="1">
+        <v>23.86</v>
+      </c>
+      <c r="H9" s="1">
+        <v>28.66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>13.58</v>
+      </c>
+      <c r="D10" s="1">
+        <v>16.79</v>
+      </c>
+      <c r="E10" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>25.8</v>
+      </c>
+      <c r="G10" s="1">
+        <v>32.01</v>
+      </c>
+      <c r="H10" s="1">
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>15.94</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20.3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>25.96</v>
+      </c>
+      <c r="F11" s="1">
+        <v>33.25</v>
+      </c>
+      <c r="G11" s="1">
+        <v>42.62</v>
+      </c>
+      <c r="H11" s="1">
+        <v>54.59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>18.53</v>
+      </c>
+      <c r="D12" s="1">
+        <v>24.35</v>
+      </c>
+      <c r="E12" s="1">
+        <v>32.15</v>
+      </c>
+      <c r="F12" s="1">
+        <v>42.57</v>
+      </c>
+      <c r="G12" s="1">
+        <v>56.41</v>
+      </c>
+      <c r="H12" s="1">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>21.38</v>
+      </c>
+      <c r="D13" s="1">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1">
+        <v>39.58</v>
+      </c>
+      <c r="F13" s="1">
+        <v>54.21</v>
+      </c>
+      <c r="G13" s="1">
+        <v>74.33</v>
+      </c>
+      <c r="H13" s="1">
+        <v>101.84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>24.52</v>
+      </c>
+      <c r="D14" s="1">
+        <v>34.35</v>
+      </c>
+      <c r="E14" s="1">
+        <v>32.15</v>
+      </c>
+      <c r="F14" s="1">
+        <v>68.760000000000005</v>
+      </c>
+      <c r="G14" s="1">
+        <v>97.63</v>
+      </c>
+      <c r="H14" s="1">
+        <v>138.47999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>27.97</v>
+      </c>
+      <c r="D15" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>59.2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>86.95</v>
+      </c>
+      <c r="G15" s="1">
+        <v>127.91</v>
+      </c>
+      <c r="H15" s="1">
+        <v>187.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>31.77</v>
+      </c>
+      <c r="D16" s="1">
+        <v>47.58</v>
+      </c>
+      <c r="E16" s="1">
+        <v>72.040000000000006</v>
+      </c>
+      <c r="F16" s="1">
+        <v>109.69</v>
+      </c>
+      <c r="G16" s="1">
+        <v>167.29</v>
+      </c>
+      <c r="H16" s="1">
+        <v>254.74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="D17" s="1">
+        <v>55.72</v>
+      </c>
+      <c r="E17" s="1">
+        <v>87.44</v>
+      </c>
+      <c r="F17" s="1">
+        <v>138.11000000000001</v>
+      </c>
+      <c r="G17" s="1">
+        <v>218.04</v>
+      </c>
+      <c r="H17" s="1">
+        <v>371.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>40.54</v>
+      </c>
+      <c r="D18" s="1">
+        <v>65.08</v>
+      </c>
+      <c r="E18" s="1">
+        <v>105.93</v>
+      </c>
+      <c r="F18" s="1">
+        <v>173.64</v>
+      </c>
+      <c r="G18" s="1">
+        <v>285.01</v>
+      </c>
+      <c r="H18" s="1">
+        <v>466.61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45.6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>75.84</v>
+      </c>
+      <c r="E19" s="1">
+        <v>128.12</v>
+      </c>
+      <c r="F19" s="1">
+        <v>218.04</v>
+      </c>
+      <c r="G19" s="1">
+        <v>371.52</v>
+      </c>
+      <c r="H19" s="1">
+        <v>630.91999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>51.16</v>
+      </c>
+      <c r="D20" s="1">
+        <v>88.21</v>
+      </c>
+      <c r="E20" s="1">
+        <v>154.74</v>
+      </c>
+      <c r="F20" s="1">
+        <v>273.56</v>
+      </c>
+      <c r="G20" s="1">
+        <v>483.97</v>
+      </c>
+      <c r="H20" s="1">
+        <v>852.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>57.27</v>
+      </c>
+      <c r="D21" s="1">
+        <v>102.44</v>
+      </c>
+      <c r="E21" s="1">
+        <v>186.69</v>
+      </c>
+      <c r="F21" s="1">
+        <v>342.94</v>
+      </c>
+      <c r="G21" s="1">
+        <v>630.16999999999996</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1152.21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1">
+        <v>118.81</v>
+      </c>
+      <c r="E22" s="1">
+        <v>225.03</v>
+      </c>
+      <c r="F22" s="1">
+        <v>429.68</v>
+      </c>
+      <c r="G22" s="1">
+        <v>820.22</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1556.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3"/>
+      <c r="B1" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C1" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="D1" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E1" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F1" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G1" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.56</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3.39</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-0.36</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.29</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-0.59</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-0.02</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5.26</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>